--- a/data/income_statement/3digits/total/522_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/522_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>522-Support activities for transportation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>522-Support activities for transportation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>12883618.83198</v>
+        <v>12885146.1537</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>16168482.52734</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>21022818.46208</v>
+        <v>21022968.81422</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>23456756.08196</v>
+        <v>23467913.00371</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>27888842.80054</v>
+        <v>27952857.89293</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>32777238.9688</v>
+        <v>33426702.21249</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>35537173.85995001</v>
+        <v>40077862.97755</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>42797544.88444</v>
+        <v>43248862.10683</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>60076951.66934001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>80362009.3717</v>
+        <v>80554497.56044</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>103441303.88473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>104213971.67435</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>118029968.416</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>8709072.357889999</v>
+        <v>8710534.999610001</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>11124211.04635</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>14051746.13226</v>
+        <v>14051895.2844</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>16375084.22218</v>
+        <v>16386066.8152</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>19665561.19848</v>
+        <v>19694572.83478</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>22864354.56831</v>
+        <v>23508263.54148</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>24869685.18151</v>
+        <v>28290750.30982</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>31255822.09407</v>
+        <v>31542763.13308</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>43679677.84121999</v>
+        <v>43679677.84122</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>56994137.98881</v>
+        <v>57158487.03994999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>73893294.94253999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>74414299.88430001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>80640537.71799999</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>3945269.87609</v>
@@ -1034,76 +950,86 @@
         <v>4806636.189590001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>6669131.603720001</v>
+        <v>6669131.603719999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>6702275.90476</v>
+        <v>6702320.422650001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>7838412.86467</v>
+        <v>7872866.321450001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>9434977.655469999</v>
+        <v>9435844.259330001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>10135219.22996</v>
+        <v>11241673.06441</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>10892717.09373</v>
+        <v>11052481.90584</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>15435383.6803</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>22100500.72924</v>
+        <v>22125585.55918</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>27838875.16686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>28082250.66696</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>35534634.483</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>229276.598</v>
+        <v>229341.278</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>237635.2914</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>301940.7261</v>
+        <v>301941.9261</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>379395.95502</v>
+        <v>379525.76586</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>384868.73739</v>
+        <v>385418.7367</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>477906.7450199999</v>
+        <v>482594.41168</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>532269.44848</v>
+        <v>545439.6033199999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>649005.6966400001</v>
+        <v>653617.06791</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>961890.14782</v>
+        <v>961890.1478200001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1267370.65365</v>
+        <v>1270424.96131</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1709133.77533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1717421.12309</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1854796.215</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>213731.09038</v>
@@ -1115,34 +1041,39 @@
         <v>339510.30006</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>341271.24957</v>
+        <v>341274.82111</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>407635.05554</v>
+        <v>407638.47692</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>544479.04338</v>
+        <v>561557.64939</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1441907.04843</v>
+        <v>1783866.51917</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>869865.9722699999</v>
+        <v>873245.5117</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1135634.75699</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1654124.97227</v>
+        <v>1654206.70396</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2554519.87422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2556257.73001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2531911.903</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>35151.62112</v>
@@ -1154,34 +1085,39 @@
         <v>65278.83719</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>64831.41811</v>
+        <v>64832.99408</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>89189.10993000001</v>
+        <v>89192.53131000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>143674.2965</v>
+        <v>160752.28726</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1289689.7975</v>
+        <v>1298340.09519</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>302768.42597</v>
+        <v>305941.14082</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>391487.92473</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>576880.1065600001</v>
+        <v>576938.57887</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1185698.97186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1186725.50336</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1373271.967</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>6815.96213</v>
@@ -1193,34 +1129,39 @@
         <v>25249.26717</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>14977.16858</v>
+        <v>14979.16415</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>19218.25331</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>31201.95265</v>
+        <v>31202.5679</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>37968.23706</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>67011.01187999999</v>
+        <v>67217.83646000001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>115233.19602</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>163899.36478</v>
+        <v>163913.37985</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>194289.68928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>194820.9938</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>258830.721</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>171763.50713</v>
@@ -1235,13 +1176,13 @@
         <v>261462.66288</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>299227.6922999999</v>
+        <v>299227.6923</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>369602.79423</v>
+        <v>369602.7942299999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>114249.01387</v>
+        <v>447558.1869199999</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>500086.53442</v>
@@ -1250,94 +1191,109 @@
         <v>628913.63624</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>913345.50093</v>
+        <v>913354.7452399998</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1174531.21308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1174711.23285</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>899809.215</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>12669887.7416</v>
+        <v>12671415.06332</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>15910480.4172</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>20683308.16202</v>
+        <v>20683458.51416</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>23115484.83239</v>
+        <v>23126638.1826</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>27481207.745</v>
+        <v>27545219.41601</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>32232759.92542</v>
+        <v>32865144.5631</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>34095266.81152</v>
+        <v>38293996.45838001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>41927678.91217</v>
+        <v>42375616.59513</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>58941316.91235</v>
+        <v>58941316.91235001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>78707884.39942999</v>
+        <v>78900290.85648</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>100886784.01051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>101657713.94434</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>115498056.513</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>9091382.234620001</v>
+        <v>9091879.510089999</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>11792968.43263</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>15074817.36714</v>
+        <v>15074985.85518</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>17056763.45942</v>
+        <v>17065443.91363</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>19971320.19033</v>
+        <v>20019427.89469</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>23272888.07865</v>
+        <v>23642976.78818</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>24929533.61297</v>
+        <v>27174205.34982</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>31132067.3397</v>
+        <v>31537950.64845001</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>44348490.47024</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>57597308.60350999</v>
+        <v>57774248.7376</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>74355638.74533001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>75019909.59976</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>93971540.27500001</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>200935.26564</v>
@@ -1349,16 +1305,16 @@
         <v>214670.85305</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>91418.65698999999</v>
+        <v>91418.65699</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>77967.05455</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>565565.6033300001</v>
+        <v>565904.08337</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>153228.46882</v>
+        <v>153614.0749</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>381946.2019700001</v>
@@ -1370,52 +1326,62 @@
         <v>137683.36072</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>246128.71876</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>251953.30558</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>309238.975</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>787605.5773700001</v>
+        <v>788102.8528400001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>1084944.62608</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1827619.02097</v>
+        <v>1827643.98285</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1550180.73411</v>
+        <v>1552486.13076</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1646770.86906</v>
+        <v>1653312.31238</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1540263.52007</v>
+        <v>1544502.99379</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2105018.93475</v>
+        <v>2117580.49439</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2305931.15385</v>
+        <v>2309710.48383</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>3402678.56731</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3590475.96547</v>
+        <v>3612428.95665</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4311778.44745</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4583127.02191</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7493306.523</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>8035650.64966</v>
@@ -1424,154 +1390,174 @@
         <v>10435905.35339</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>13004253.56189</v>
+        <v>13004397.08805</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>15368612.27618</v>
+        <v>15374953.91844</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>18221469.98859</v>
+        <v>18262941.40341</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>21121090.40587</v>
+        <v>21486601.16164</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>22609845.31769</v>
+        <v>24841529.61361</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>28365225.7184</v>
+        <v>28767002.50546</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>40601911.33758</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>53731544.73428</v>
+        <v>53886521.87026</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>69323735.08400001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>69762118.37494001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>85528448.40899999</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>67190.74195</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>87761.41945999999</v>
+        <v>87761.41946</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>28273.93123</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>46551.79214</v>
+        <v>46585.20744</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>25112.27813</v>
+        <v>25207.12435</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>45968.54938</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>61440.89171</v>
+        <v>61481.16692</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>78964.26548</v>
+        <v>79291.45719</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>105020.33455</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>137604.54304</v>
+        <v>137614.54997</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>473996.49512</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>422710.8973300001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>640546.368</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3578505.50698</v>
+        <v>3579535.55323</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4117511.98457</v>
+        <v>4117511.984570001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>5608490.79488</v>
+        <v>5608472.65898</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>6058721.37297</v>
+        <v>6061194.26897</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>7509887.55467</v>
+        <v>7525791.521319999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>8959871.846769998</v>
+        <v>9222167.77492</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>9165733.198549999</v>
+        <v>11119791.10856</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>10795611.57247</v>
+        <v>10837665.94668</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>14592826.44211</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>21110575.79592</v>
+        <v>21126042.11888</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>26531145.26518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>26637804.34458</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>21526516.238</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2000208.43187</v>
+        <v>2001246.81261</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>2276178.80417</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2791903.59137</v>
+        <v>2791935.64177</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3210292.13766</v>
+        <v>3212936.63113</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3699617.24881</v>
+        <v>3716669.106850001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>4322576.129819999</v>
+        <v>4380542.20772</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4818732.65123</v>
+        <v>5095965.332260001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>5559884.4665</v>
+        <v>5601241.27992</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>7233972.360069999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>8291187.230819999</v>
+        <v>8303270.54067</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>10078771.54974</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>10128187.92576</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>10585251.556</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2498.7986</v>
@@ -1580,10 +1566,10 @@
         <v>2591.02548</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>4310.88257</v>
+        <v>4310.882570000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>4410.477370000001</v>
+        <v>4600.62041</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>5502.62557</v>
@@ -1592,25 +1578,30 @@
         <v>7728.401650000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>53180.75541</v>
+        <v>57518.98153</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>68187.12608</v>
+        <v>68093.69658</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>84073.08273000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>7781.05536</v>
+        <v>7787.6309</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>9820.988939999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>16797.484</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>150260.50627</v>
@@ -1622,112 +1613,127 @@
         <v>236578.98979</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>293864.3299</v>
+        <v>295524.92576</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>332170.65803</v>
+        <v>340353.11702</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>355051.2723300001</v>
+        <v>360915.92913</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>369308.6745</v>
+        <v>379418.55025</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>438841.33835</v>
+        <v>439669.47292</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>543347.29689</v>
+        <v>543347.2968900001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>646084.2618</v>
+        <v>648017.03415</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>771348.8955499999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>777602.45898</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1079432.833</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1847449.127</v>
+        <v>1848487.50774</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>2110739.70692</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2551013.71901</v>
+        <v>2551045.76941</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2912017.33039</v>
+        <v>2912811.08496</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>3361943.96521</v>
+        <v>3370813.36426</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3959796.45584</v>
+        <v>4011897.87694</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>4396243.22132</v>
+        <v>4659027.800480001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>5052856.00207</v>
+        <v>5093478.11042</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>6606551.980450001</v>
+        <v>6606551.98045</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>7637321.91366</v>
+        <v>7647465.875619999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>9297601.66525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>9340764.477840001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>9489021.239</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1578297.07511</v>
+        <v>1578288.74062</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>1841333.1804</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2816587.20351</v>
+        <v>2816537.01721</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2848429.23531</v>
+        <v>2848257.63784</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3810270.30586</v>
+        <v>3809122.41447</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4637295.716950001</v>
+        <v>4841625.567199999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4347000.547320001</v>
+        <v>6023825.7763</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>5235727.10597</v>
+        <v>5236424.66676</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>7358854.08204</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>12819388.5651</v>
+        <v>12822771.57821</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>16452373.71544</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16509616.41882</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>10941264.682</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1578459.33289</v>
@@ -1739,37 +1745,42 @@
         <v>2290750.34785</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1945504.33703</v>
+        <v>1945679.13483</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3241492.358810001</v>
+        <v>3245241.67362</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4081548.72961</v>
+        <v>4293830.40288</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>6798574.77213</v>
+        <v>10224684.21057</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>8802962.13047</v>
+        <v>8828380.14855</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>11763018.76427</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>32101015.199</v>
+        <v>32111031.45229</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>24169482.56579001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>24179652.95477</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>39316594.724</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>27901.57704000001</v>
+        <v>27901.57704</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>82029.49353000001</v>
@@ -1778,34 +1789,39 @@
         <v>65571.55627</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>84396.04617000002</v>
+        <v>84396.04616999999</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>269383.76446</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>281728.34629</v>
+        <v>299972.28871</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>472527.2394</v>
+        <v>473265.99433</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>261825.82966</v>
+        <v>263532.36072</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>230383.40758</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>371811.8631799999</v>
+        <v>371811.86318</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>531741.44014</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>1618389.014</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>58039.33231000001</v>
@@ -1814,7 +1830,7 @@
         <v>70450.11087</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>90189.5963</v>
+        <v>90189.59629999999</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>118871.10914</v>
@@ -1823,10 +1839,10 @@
         <v>144584.55537</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>179990.16698</v>
+        <v>180830.36259</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>312549.89083</v>
+        <v>312981.9908</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>367235.05231</v>
@@ -1835,16 +1851,21 @@
         <v>744108.31565</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>652549.5193200001</v>
+        <v>652549.51932</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>509743.55488</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>146569.607</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>177865.39678</v>
@@ -1856,34 +1877,39 @@
         <v>193060.74053</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>211403.48173</v>
+        <v>211427.58222</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>241150.1594</v>
+        <v>241282.90917</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>316658.40825</v>
+        <v>322547.06612</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>349328.6258499999</v>
+        <v>410945.47436</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>425165.33659</v>
+        <v>425502.55079</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>619404.8415200001</v>
+        <v>619404.84152</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1164257.72857</v>
+        <v>1164400.44664</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1361382.52924</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1362282.00883</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1295460.575</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>12308.12199</v>
@@ -1895,37 +1921,42 @@
         <v>17616.48574</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>20153.45229</v>
+        <v>20214.78686</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>24003.05279</v>
+        <v>24008.24279</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>33048.00503</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>69708.86816999999</v>
+        <v>69708.86817</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>31538.28976</v>
+        <v>31594.90354</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>43705.20183000001</v>
+        <v>43705.20183</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>64861.37994</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>57193.67697</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>57644.65865</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>38804.608</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>6933.928539999999</v>
+        <v>6933.928540000001</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>7361.878470000001</v>
@@ -1943,10 +1974,10 @@
         <v>13308.73656</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>22174.49693</v>
+        <v>22666.50155</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>17823.11067</v>
+        <v>17972.70633</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>39731.33337000001</v>
@@ -1955,16 +1986,21 @@
         <v>65144.94668000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>233404.8671</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>233430.66728</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>179094.884</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>81979.45113</v>
+        <v>81979.45113000002</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>52359.72196</v>
@@ -1973,34 +2009,39 @@
         <v>64814.52245</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>43423.30016</v>
+        <v>43423.30016000001</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>12239.84195</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>13483.76317</v>
+        <v>13486.68954</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4967.27489</v>
+        <v>9354.841789999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>9528.564910000001</v>
+        <v>9667.343859999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>97839.01911999998</v>
+        <v>97839.01912000001</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>24243.35812</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>42040.52342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>42038.33676</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>59156.029</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1052761.67692</v>
@@ -2012,34 +2053,39 @@
         <v>1719929.81059</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1306597.40903</v>
+        <v>1306599.87245</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2360231.9995</v>
+        <v>2363701.89515</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2954144.29503</v>
+        <v>3141283.95556</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>5329582.885799999</v>
+        <v>8650577.72859</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>7379217.76405</v>
+        <v>7402247.066230001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>9220715.46603</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>29011991.16577</v>
+        <v>29021836.66673</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>17557862.09556</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>17564775.46687</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>34315946.507</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2640.24278</v>
@@ -2051,16 +2097,16 @@
         <v>710.88832</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>941.3003600000001</v>
+        <v>941.30036</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>1058.35337</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>932.2887700000001</v>
+        <v>932.28877</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>941.8259400000001</v>
+        <v>1069.5799</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>2352.34773</v>
@@ -2074,14 +2120,19 @@
       <c r="M33" s="48" t="n">
         <v>15408.26779</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1117.084</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>74.62718000000001</v>
+        <v>74.62718</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>143.09013</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>952.08996</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>171.718</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>157954.97822</v>
@@ -2129,34 +2185,39 @@
         <v>127524.64438</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>146814.01767</v>
+        <v>146900.91699</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>166293.2208</v>
+        <v>166434.70019</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>288057.78817</v>
+        <v>288224.07864</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>235956.72919</v>
+        <v>273276.29595</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>308164.48988</v>
+        <v>308164.47213</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>760792.8501400001</v>
+        <v>760792.8501399999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>736763.6945</v>
+        <v>736791.72876</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3859753.52073</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3861636.46361</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1661884.698</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1066227.89769</v>
@@ -2168,34 +2229,39 @@
         <v>1676636.33427</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1069650.65803</v>
+        <v>1069656.97932</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2387089.61472</v>
+        <v>2396369.32718</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2920476.18372</v>
+        <v>3181638.4642</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>5160201.65552</v>
+        <v>8603132.783360001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>7195520.168559999</v>
+        <v>7219692.98499</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>9740621.988369999</v>
+        <v>9740621.988370001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>31424795.52656</v>
+        <v>31438102.53994</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>20286123.42963</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>20294027.77662</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>37829091.872</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>11562.41709</v>
@@ -2210,13 +2276,13 @@
         <v>18239.28155</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>19986.93397</v>
+        <v>19987.04375</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>33255.999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>193425.95389</v>
+        <v>193631.28779</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>29812.23439</v>
@@ -2225,16 +2291,21 @@
         <v>110275.73238</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>83806.51716000002</v>
+        <v>83806.51716</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>76824.88761000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>65581.86241</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>78993.47199999999</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>32651.98863</v>
@@ -2255,10 +2326,10 @@
         <v>68018.43979</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>72014.28847999999</v>
+        <v>76867.62547</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>76224.69666</v>
+        <v>79185.19412999999</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>212888.51446</v>
@@ -2267,13 +2338,18 @@
         <v>244946.03615</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>347764.32515</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>347802.30304</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>453158.512</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>43351.16284999999</v>
@@ -2294,10 +2370,10 @@
         <v>2533.83746</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>50191.20455</v>
+        <v>52843.84549</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1064.69304</v>
+        <v>1104.21804</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>20184.21168</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>58789.39887</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>27935.178</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>920320.2202400001</v>
@@ -2324,34 +2405,39 @@
         <v>1577434.3156</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>932234.8636199998</v>
+        <v>932236.5235899999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2251695.06429</v>
+        <v>2260972.96547</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2652861.28262</v>
+        <v>2913930.05343</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4713985.548649999</v>
+        <v>8147563.45161</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>6923139.342580001</v>
+        <v>6944247.53915</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>9171940.567960002</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>30628028.12332</v>
+        <v>30641326.09193</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>18999483.01316001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>19018243.7051</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>36410405.279</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>850.423</v>
@@ -2369,10 +2455,10 @@
         <v>385.2778299999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>723.0974899999999</v>
+        <v>731.2057</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1154.26676</v>
+        <v>1225.59132</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>751.86428</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1697.98586</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>341.66</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>100.90289</v>
@@ -2405,7 +2496,7 @@
         <v>121.40026</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>40.73502000000001</v>
+        <v>40.73502</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>87.23988</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>385.78449</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>2.386</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>57390.78299</v>
@@ -2438,40 +2534,45 @@
         <v>51442.00942</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>55505.88395999999</v>
+        <v>55505.88396</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>61067.25487</v>
+        <v>61071.91619</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>65095.96563000001</v>
+        <v>65097.66713</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>162996.28748</v>
+        <v>163081.68894</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>127464.07029</v>
+        <v>129034.65878</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>162751.18828</v>
+        <v>162815.78567</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>220379.80627</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>439254.28907</v>
+        <v>439263.33384</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>801178.03449</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>801526.7368499999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>858255.385</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>541556.03062</v>
+        <v>541556.0306199999</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>580784.9378899999</v>
@@ -2480,34 +2581,39 @@
         <v>1343798.72747</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>687796.0844000001</v>
+        <v>687882.1802899999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1672347.09419</v>
+        <v>1673860.61914</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>968471.2507199999</v>
+        <v>1035981.38074</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1837283.12879</v>
+        <v>1842453.8711</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2288364.06557</v>
+        <v>2292988.99433</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>5051279.03891</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>11785975.39906</v>
+        <v>11786113.23229</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>12919489.54703</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>12922194.07732</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>29430703.29</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>156362.40628</v>
@@ -2519,34 +2625,39 @@
         <v>280725.37194</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>267772.69344</v>
+        <v>267824.4124</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>366305.4860600001</v>
+        <v>366552.66221</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>489826.5509500001</v>
+        <v>489932.26057</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>703912.75041</v>
+        <v>709074.09752</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>944524.2404</v>
+        <v>949087.0205499999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>3404822.57155</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>8924552.821099998</v>
+        <v>8924690.65433</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>10884202.35837</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>10886704.31298</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>24468121.557</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>385193.62434</v>
@@ -2558,19 +2669,19 @@
         <v>1063073.35553</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>420023.39096</v>
+        <v>420057.76789</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1306041.60813</v>
+        <v>1307307.95693</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>478644.6997700001</v>
+        <v>546049.1201700001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1133370.37838</v>
+        <v>1133379.77358</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1343839.82517</v>
+        <v>1343901.97378</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>1646456.46736</v>
@@ -2579,52 +2690,62 @@
         <v>2861422.57796</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2035287.18866</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2035489.76434</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4962581.733</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1548972.47969</v>
+        <v>1548964.1452</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>2083875.62632</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2086902.48962</v>
+        <v>2086852.30332</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3036486.82991</v>
+        <v>3036397.61306</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2992325.95576</v>
+        <v>2984134.141770001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4829897.012120001</v>
+        <v>4917836.125140001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>4148090.53514</v>
+        <v>5802923.33241</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4554805.00231</v>
+        <v>4552122.835989999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>4329971.81903</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1709632.83848</v>
+        <v>1709587.25827</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>7416243.30457</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>7473047.519649999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-17001935.756</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>143090.51774</v>
@@ -2636,34 +2757,39 @@
         <v>218632.76554</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>305660.52993</v>
+        <v>305695.75767</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>345078.81589</v>
+        <v>345247.7673300001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>304827.73285</v>
+        <v>306249.08004</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>334829.15392</v>
+        <v>365925.16162</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>665707.8718600001</v>
+        <v>667097.53715</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>2643644.2931</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2587047.87017</v>
+        <v>2587303.74148</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3560853.97257</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3570410.95926</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>4948288.228</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>36657.39631</v>
@@ -2675,16 +2801,16 @@
         <v>37500.51857</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>9998.984139999999</v>
+        <v>9998.98414</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>19208.62812</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>24687.23188</v>
+        <v>24705.03273</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>26643.39547</v>
+        <v>27538.13246</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>18679.78263</v>
@@ -2693,16 +2819,21 @@
         <v>39304.34647</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>67163.78629999999</v>
+        <v>67163.78630000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>93533.85416</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>93533.85416000002</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>195103.936</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>106433.12143</v>
@@ -2714,34 +2845,39 @@
         <v>181132.24697</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>295661.54579</v>
+        <v>295696.7735299999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>325870.18777</v>
+        <v>326039.13921</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>280140.5009700001</v>
+        <v>281544.04731</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>308185.75845</v>
+        <v>338387.02916</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>647028.0892300002</v>
+        <v>648417.75452</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>2604339.94663</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2519884.08387</v>
+        <v>2520139.955180001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3467320.11841</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3476877.1051</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4753184.292</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>138686.27799</v>
@@ -2750,37 +2886,42 @@
         <v>155168.22825</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>695850.08073</v>
+        <v>695850.1194099999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>252453.15323</v>
+        <v>252495.81193</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>368970.30254</v>
+        <v>369061.09095</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>993490.09632</v>
+        <v>999988.79111</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>394406.08823</v>
+        <v>445404.34112</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>814367.1943999999</v>
+        <v>816272.67606</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1261181.22267</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2314338.26774</v>
+        <v>2314645.89269</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2445938.14771</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2448373.98832</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>4632672.1</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>11816.30775</v>
@@ -2801,64 +2942,74 @@
         <v>17264.06282</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4961.918379999999</v>
+        <v>4961.91838</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>14533.55537</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>9689.908600000001</v>
+        <v>9689.908599999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>831.3319700000001</v>
+        <v>831.33197</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1305.88168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1305.88568</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2486.379</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>35463.63405000001</v>
+        <v>35463.63405</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>17627.52841</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>66890.37873000001</v>
+        <v>66890.37873</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>22775.38483</v>
+        <v>22793.92394</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>45786.34748</v>
+        <v>45816.03883</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>557229.77832</v>
+        <v>557302.3958300001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>91471.08813</v>
+        <v>95500.18801000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>92894.18193000001</v>
+        <v>93380.86456</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>374698.41585</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>112534.21063</v>
+        <v>112551.67298</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>157458.21505</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>157604.39432</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>189509.577</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>91406.33619</v>
@@ -2867,151 +3018,169 @@
         <v>123349.732</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>616840.4734499999</v>
+        <v>616840.51213</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>219680.3516799999</v>
+        <v>219704.47127</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>314131.35649</v>
+        <v>314192.45355</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>418996.2551800001</v>
+        <v>425422.3324600001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>297973.08172</v>
+        <v>344942.23473</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>706939.4571</v>
+        <v>708358.25613</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>876792.89822</v>
+        <v>876792.8982199999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2200972.72514</v>
+        <v>2201262.88774</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2287174.05098</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2289463.70832</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>4440676.144</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1553376.71944</v>
+        <v>1553368.38495</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>2087997.06925</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1609685.17443</v>
+        <v>1609634.94945</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3089694.20661</v>
+        <v>3089597.5588</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2968434.469109999</v>
+        <v>2960320.81815</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4141234.648649999</v>
+        <v>4224096.41407</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>4088513.60083</v>
+        <v>5723444.152910001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>4406145.679769999</v>
+        <v>4402947.69708</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>5712434.88946</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1982342.44091</v>
+        <v>1982245.10706</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>8531159.12943</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>8595084.490589999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-16686319.628</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>323517.75246</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>364036.7001900001</v>
+        <v>364036.70019</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>375374.6730599999</v>
+        <v>375374.67306</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>634438.1028299999</v>
+        <v>634504.2043999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>720128.09101</v>
+        <v>720194.0240399998</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>759863.8263099999</v>
+        <v>760516.3809499999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>904833.63828</v>
+        <v>920247.6417299999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>829997.2554500001</v>
+        <v>830050.90038</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1280906.51199</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1831753.6043</v>
+        <v>1833229.8943</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2480119.83444</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2484503.30984</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2008867.703</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1229858.96698</v>
+        <v>1229850.63249</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>1723960.36906</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1234310.50137</v>
+        <v>1234260.27639</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2455256.10378</v>
+        <v>2455093.3544</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2248306.3781</v>
+        <v>2240126.79411</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3381370.822339999</v>
+        <v>3463580.03312</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>3183679.96255</v>
+        <v>4803196.51118</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3576148.42432</v>
+        <v>3572896.7967</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>4431528.37747</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>150588.83661</v>
+        <v>149015.2127600001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>6051039.29499</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>6110581.18075</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-18695187.331</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>7543</v>
+        <v>7544</v>
       </c>
       <c r="D59" s="35" t="n">
         <v>7783</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>8645</v>
+        <v>8650</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>9885</v>
+        <v>9907</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>11434</v>
+        <v>11474</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>11779</v>
+        <v>11851</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>11697</v>
+        <v>11854</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>11930</v>
+        <v>12018</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>12162</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>12162</v>
+        <v>12428</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>12303</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>12853</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>13352</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>